--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Agt-Agtr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Agt-Agtr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,6 +89,9 @@
   </si>
   <si>
     <t>Agtr2</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.4683593333333333</v>
+        <v>0.1206283333333333</v>
       </c>
       <c r="H2">
-        <v>1.405078</v>
+        <v>0.361885</v>
       </c>
       <c r="I2">
-        <v>0.6051469521021553</v>
+        <v>0.09993369694616584</v>
       </c>
       <c r="J2">
-        <v>0.6051469521021552</v>
+        <v>0.09993369694616584</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>64.154275</v>
+        <v>0.09397566666666667</v>
       </c>
       <c r="N2">
-        <v>192.462825</v>
+        <v>0.281927</v>
       </c>
       <c r="O2">
-        <v>0.9711753522845754</v>
+        <v>0.001414110383612609</v>
       </c>
       <c r="P2">
-        <v>0.9711753522845754</v>
+        <v>0.001414110383612609</v>
       </c>
       <c r="Q2">
-        <v>30.04725346948333</v>
+        <v>0.01133612804388889</v>
       </c>
       <c r="R2">
-        <v>270.42528122535</v>
+        <v>0.102025152395</v>
       </c>
       <c r="S2">
-        <v>0.5877038043917477</v>
+        <v>0.0001413172785243688</v>
       </c>
       <c r="T2">
-        <v>0.5877038043917476</v>
+        <v>0.0001413172785243688</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.4683593333333333</v>
+        <v>0.1206283333333333</v>
       </c>
       <c r="H3">
-        <v>1.405078</v>
+        <v>0.361885</v>
       </c>
       <c r="I3">
-        <v>0.6051469521021553</v>
+        <v>0.09993369694616584</v>
       </c>
       <c r="J3">
-        <v>0.6051469521021552</v>
+        <v>0.09993369694616584</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -611,60 +617,60 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.904109666666667</v>
+        <v>64.154275</v>
       </c>
       <c r="N3">
-        <v>5.712329</v>
+        <v>192.462825</v>
       </c>
       <c r="O3">
-        <v>0.02882464771542451</v>
+        <v>0.9653693306845974</v>
       </c>
       <c r="P3">
-        <v>0.02882464771542451</v>
+        <v>0.9653693306845973</v>
       </c>
       <c r="Q3">
-        <v>0.8918075340735556</v>
+        <v>7.738823269458333</v>
       </c>
       <c r="R3">
-        <v>8.026267806662</v>
+        <v>69.649409425125</v>
       </c>
       <c r="S3">
-        <v>0.0174431477104075</v>
+        <v>0.09647292613375752</v>
       </c>
       <c r="T3">
-        <v>0.01744314771040749</v>
+        <v>0.09647292613375751</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.3056003333333333</v>
+        <v>0.1206283333333333</v>
       </c>
       <c r="H4">
-        <v>0.916801</v>
+        <v>0.361885</v>
       </c>
       <c r="I4">
-        <v>0.3948530478978448</v>
+        <v>0.09993369694616584</v>
       </c>
       <c r="J4">
-        <v>0.3948530478978448</v>
+        <v>0.09993369694616584</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -673,90 +679,586 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>64.154275</v>
+        <v>2.132189</v>
       </c>
       <c r="N4">
-        <v>192.462825</v>
+        <v>6.396567</v>
       </c>
       <c r="O4">
-        <v>0.9711753522845754</v>
+        <v>0.03208437579293135</v>
       </c>
       <c r="P4">
-        <v>0.9711753522845754</v>
+        <v>0.03208437579293135</v>
       </c>
       <c r="Q4">
-        <v>19.60556782475833</v>
+        <v>0.2572024054216667</v>
       </c>
       <c r="R4">
-        <v>176.450110422825</v>
+        <v>2.314821648795</v>
       </c>
       <c r="S4">
-        <v>0.3834715478928278</v>
+        <v>0.003206310287197701</v>
       </c>
       <c r="T4">
-        <v>0.3834715478928278</v>
+        <v>0.003206310287197701</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.1206283333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.361885</v>
+      </c>
+      <c r="I5">
+        <v>0.09993369694616584</v>
+      </c>
+      <c r="J5">
+        <v>0.09993369694616584</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.07524</v>
+      </c>
+      <c r="N5">
+        <v>0.22572</v>
+      </c>
+      <c r="O5">
+        <v>0.001132183138858776</v>
+      </c>
+      <c r="P5">
+        <v>0.001132183138858776</v>
+      </c>
+      <c r="Q5">
+        <v>0.0090760758</v>
+      </c>
+      <c r="R5">
+        <v>0.08168468220000001</v>
+      </c>
+      <c r="S5">
+        <v>0.0001131432466862717</v>
+      </c>
+      <c r="T5">
+        <v>0.0001131432466862717</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.4683593333333333</v>
+      </c>
+      <c r="H6">
+        <v>1.405078</v>
+      </c>
+      <c r="I6">
+        <v>0.3880090057275787</v>
+      </c>
+      <c r="J6">
+        <v>0.3880090057275787</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.09397566666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.281927</v>
+      </c>
+      <c r="O6">
+        <v>0.001414110383612609</v>
+      </c>
+      <c r="P6">
+        <v>0.001414110383612609</v>
+      </c>
+      <c r="Q6">
+        <v>0.04401438058955556</v>
+      </c>
+      <c r="R6">
+        <v>0.396129425306</v>
+      </c>
+      <c r="S6">
+        <v>0.0005486875639345735</v>
+      </c>
+      <c r="T6">
+        <v>0.0005486875639345733</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.4683593333333333</v>
+      </c>
+      <c r="H7">
+        <v>1.405078</v>
+      </c>
+      <c r="I7">
+        <v>0.3880090057275787</v>
+      </c>
+      <c r="J7">
+        <v>0.3880090057275787</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>64.154275</v>
+      </c>
+      <c r="N7">
+        <v>192.462825</v>
+      </c>
+      <c r="O7">
+        <v>0.9653693306845974</v>
+      </c>
+      <c r="P7">
+        <v>0.9653693306845973</v>
+      </c>
+      <c r="Q7">
+        <v>30.04725346948333</v>
+      </c>
+      <c r="R7">
+        <v>270.42528122535</v>
+      </c>
+      <c r="S7">
+        <v>0.3745719941588287</v>
+      </c>
+      <c r="T7">
+        <v>0.3745719941588287</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.4683593333333333</v>
+      </c>
+      <c r="H8">
+        <v>1.405078</v>
+      </c>
+      <c r="I8">
+        <v>0.3880090057275787</v>
+      </c>
+      <c r="J8">
+        <v>0.3880090057275787</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>2.132189</v>
+      </c>
+      <c r="N8">
+        <v>6.396567</v>
+      </c>
+      <c r="O8">
+        <v>0.03208437579293135</v>
+      </c>
+      <c r="P8">
+        <v>0.03208437579293135</v>
+      </c>
+      <c r="Q8">
+        <v>0.9986306185806666</v>
+      </c>
+      <c r="R8">
+        <v>8.987675567226001</v>
+      </c>
+      <c r="S8">
+        <v>0.01244902675080529</v>
+      </c>
+      <c r="T8">
+        <v>0.01244902675080529</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.4683593333333333</v>
+      </c>
+      <c r="H9">
+        <v>1.405078</v>
+      </c>
+      <c r="I9">
+        <v>0.3880090057275787</v>
+      </c>
+      <c r="J9">
+        <v>0.3880090057275787</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.07524</v>
+      </c>
+      <c r="N9">
+        <v>0.22572</v>
+      </c>
+      <c r="O9">
+        <v>0.001132183138858776</v>
+      </c>
+      <c r="P9">
+        <v>0.001132183138858776</v>
+      </c>
+      <c r="Q9">
+        <v>0.03523935624</v>
+      </c>
+      <c r="R9">
+        <v>0.31715420616</v>
+      </c>
+      <c r="S9">
+        <v>0.0004392972540101229</v>
+      </c>
+      <c r="T9">
+        <v>0.0004392972540101228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.618096</v>
+      </c>
+      <c r="H10">
+        <v>1.854288</v>
+      </c>
+      <c r="I10">
+        <v>0.5120572973262555</v>
+      </c>
+      <c r="J10">
+        <v>0.5120572973262555</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.09397566666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.281927</v>
+      </c>
+      <c r="O10">
+        <v>0.001414110383612609</v>
+      </c>
+      <c r="P10">
+        <v>0.001414110383612609</v>
+      </c>
+      <c r="Q10">
+        <v>0.05808598366399999</v>
+      </c>
+      <c r="R10">
+        <v>0.522773852976</v>
+      </c>
+      <c r="S10">
+        <v>0.0007241055411536672</v>
+      </c>
+      <c r="T10">
+        <v>0.000724105541153667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
+      <c r="E11">
         <v>3</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.3056003333333333</v>
-      </c>
-      <c r="H5">
-        <v>0.916801</v>
-      </c>
-      <c r="I5">
-        <v>0.3948530478978448</v>
-      </c>
-      <c r="J5">
-        <v>0.3948530478978448</v>
-      </c>
-      <c r="K5">
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.618096</v>
+      </c>
+      <c r="H11">
+        <v>1.854288</v>
+      </c>
+      <c r="I11">
+        <v>0.5120572973262555</v>
+      </c>
+      <c r="J11">
+        <v>0.5120572973262555</v>
+      </c>
+      <c r="K11">
         <v>3</v>
       </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1.904109666666667</v>
-      </c>
-      <c r="N5">
-        <v>5.712329</v>
-      </c>
-      <c r="O5">
-        <v>0.02882464771542451</v>
-      </c>
-      <c r="P5">
-        <v>0.02882464771542451</v>
-      </c>
-      <c r="Q5">
-        <v>0.5818965488365555</v>
-      </c>
-      <c r="R5">
-        <v>5.237068939529</v>
-      </c>
-      <c r="S5">
-        <v>0.01138150000501702</v>
-      </c>
-      <c r="T5">
-        <v>0.01138150000501702</v>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>64.154275</v>
+      </c>
+      <c r="N11">
+        <v>192.462825</v>
+      </c>
+      <c r="O11">
+        <v>0.9653693306845974</v>
+      </c>
+      <c r="P11">
+        <v>0.9653693306845973</v>
+      </c>
+      <c r="Q11">
+        <v>39.6535007604</v>
+      </c>
+      <c r="R11">
+        <v>356.8815068436</v>
+      </c>
+      <c r="S11">
+        <v>0.4943244103920111</v>
+      </c>
+      <c r="T11">
+        <v>0.4943244103920111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.618096</v>
+      </c>
+      <c r="H12">
+        <v>1.854288</v>
+      </c>
+      <c r="I12">
+        <v>0.5120572973262555</v>
+      </c>
+      <c r="J12">
+        <v>0.5120572973262555</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.132189</v>
+      </c>
+      <c r="N12">
+        <v>6.396567</v>
+      </c>
+      <c r="O12">
+        <v>0.03208437579293135</v>
+      </c>
+      <c r="P12">
+        <v>0.03208437579293135</v>
+      </c>
+      <c r="Q12">
+        <v>1.317897492144</v>
+      </c>
+      <c r="R12">
+        <v>11.861077429296</v>
+      </c>
+      <c r="S12">
+        <v>0.01642903875492836</v>
+      </c>
+      <c r="T12">
+        <v>0.01642903875492836</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.618096</v>
+      </c>
+      <c r="H13">
+        <v>1.854288</v>
+      </c>
+      <c r="I13">
+        <v>0.5120572973262555</v>
+      </c>
+      <c r="J13">
+        <v>0.5120572973262555</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.07524</v>
+      </c>
+      <c r="N13">
+        <v>0.22572</v>
+      </c>
+      <c r="O13">
+        <v>0.001132183138858776</v>
+      </c>
+      <c r="P13">
+        <v>0.001132183138858776</v>
+      </c>
+      <c r="Q13">
+        <v>0.04650554304</v>
+      </c>
+      <c r="R13">
+        <v>0.41854988736</v>
+      </c>
+      <c r="S13">
+        <v>0.0005797426381623816</v>
+      </c>
+      <c r="T13">
+        <v>0.0005797426381623814</v>
       </c>
     </row>
   </sheetData>
